--- a/biology/Botanique/Jardin_botanique_de_Soukhoumi/Jardin_botanique_de_Soukhoumi.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Soukhoumi/Jardin_botanique_de_Soukhoumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Soukhoumi, fondé en 1838 à Soukhoumi, en Abkhazie, en Géorgie est un des plus anciens jardins botaniques du Caucase. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la création du jardin remonte aux années 1830. La date officielle de création du jardin botanique, «brisée par le docteur Bagrinovsky dans la forteresse de Soukhoum», est 1838.
 Durant la première moitié du XIXe siècle, le médecin de la garnison de Soukhoumi, Mikhaïl Bagrinovsky, qui possédait une connaissance approfondie de la botanique et du jardinage, aménage un jardin près de sa maison. En 1840, le lieutenant-général Alexandre Raïevsky, chef du littoral fortifié de la mer Noire, attire l'attention sur ce jardin (le fils de Nikolaï Raïevski, général de cavalerie russe connu pour ses faits d'armes lors des guerres napoléoniennes).
